--- a/public/excel/allocateTemplate.xlsx
+++ b/public/excel/allocateTemplate.xlsx
@@ -1,90 +1,108 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10916"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tactan/Downloads/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF2394C-7AE4-6742-A233-8DBBE354B22F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="14355" windowHeight="11775"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>条码</t>
+      <t>名称</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> / </t>
+      <t xml:space="preserve"> *</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>零售方式</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
-      <t>旧料编号</t>
+      <t xml:space="preserve"> *</t>
     </r>
-    <rPh sb="0" eb="1">
-      <t>tiao'ma</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>jiu'liao'bian'hao</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> *</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>库存</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> *</t>
+    </r>
+  </si>
+  <si>
+    <t>备注</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="DengXian"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="DengXian"/>
-      <family val="2"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -92,31 +110,373 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -124,36 +484,338 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主题">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -167,7 +829,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -179,7 +841,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -191,14 +853,14 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
-        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -228,12 +890,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -263,7 +925,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -402,36 +1064,46 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="15.75" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="25.6666666666667" style="1" customWidth="1"/>
+    <col min="2" max="4" width="10.8333333333333" style="2"/>
+    <col min="5" max="5" width="10.8333333333333" style="1"/>
+    <col min="6" max="16384" width="10.8333333333333" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/public/excel/allocateTemplate.xlsx
+++ b/public/excel/allocateTemplate.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14355" windowHeight="11775"/>
+    <workbookView windowWidth="14595" windowHeight="12360" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,10 +27,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <r>
-      <t>名称</t>
+      <t>条码</t>
     </r>
     <r>
       <rPr>
@@ -39,53 +39,17 @@
         <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> *</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>零售方式</t>
+      <t xml:space="preserve"> / </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="DengXian"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> *</t>
+      <t>旧料编号</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t>类型</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> *</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>库存</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> *</t>
-    </r>
-  </si>
-  <si>
-    <t>备注</t>
   </si>
 </sst>
 </file>
@@ -98,11 +62,11 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -115,27 +79,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="等线"/>
+      <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -143,14 +101,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="等线"/>
+      <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -158,7 +116,7 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="等线"/>
+      <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -166,7 +124,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
+      <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -174,7 +132,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="等线"/>
+      <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -182,7 +140,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="等线"/>
+      <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -190,14 +148,14 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="等线"/>
+      <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="等线"/>
+      <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -205,7 +163,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
+      <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -213,7 +171,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
+      <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -221,14 +179,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
+      <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
+      <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -236,42 +194,42 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
+      <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="等线"/>
+      <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
+      <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
+      <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -584,173 +542,157 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -803,7 +745,7 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -813,9 +755,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -829,7 +771,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -841,7 +783,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -853,14 +795,14 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="DengXian Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -890,12 +832,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="DengXian"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -925,7 +867,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1070,40 +1012,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="15.75" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="25.6666666666667" style="1" customWidth="1"/>
-    <col min="2" max="4" width="10.8333333333333" style="2"/>
-    <col min="5" max="5" width="10.8333333333333" style="1"/>
-    <col min="6" max="16384" width="10.8333333333333" style="2"/>
+    <col min="1" max="1" width="15.3333333333333" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="10.8333333333333" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:1">
       <c r="A1" s="3" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/public/excel/allocateTemplate.xlsx
+++ b/public/excel/allocateTemplate.xlsx
@@ -1,27 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10916"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tactan/Downloads/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF2394C-7AE4-6742-A233-8DBBE354B22F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="14595" windowHeight="12360" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -31,60 +30,43 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
       <t>条码</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> / </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
         <rFont val="DengXian"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>旧料编号</t>
     </r>
-    <rPh sb="0" eb="1">
-      <t>tiao'ma</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>jiu'liao'bian'hao</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="DengXian"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="DengXian"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -92,31 +74,367 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -124,27 +442,313 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -193,7 +797,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
+        <a:latin typeface="DengXian Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -228,7 +832,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
+        <a:latin typeface="DengXian"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -402,36 +1006,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="15.3333333333333" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="10.8333333333333" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>